--- a/biology/Médecine/Fédération_internationale_de_chiropratique_du_sport/Fédération_internationale_de_chiropratique_du_sport.xlsx
+++ b/biology/Médecine/Fédération_internationale_de_chiropratique_du_sport/Fédération_internationale_de_chiropratique_du_sport.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_internationale_de_chiropratique_du_sport</t>
+          <t>Fédération_internationale_de_chiropratique_du_sport</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,17 +490,19 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fédération internationale de chiropratique du sport (FICS), fondée en 1987, est une organisation visant au développement et à la promotion de la chiropratique.
-Les objectifs de FICS[1] sont :
+Les objectifs de FICS sont :
 veiller à ce que les athlètes de tous les sports aient accès, en cas de besoin, aux compétences spécialisées des chiropraticiens, en tant que membres de l’équipe de santé sportive ;
 promouvoir l'excellence dans l'enseignement post-universitaire et la pratique de la chiropratique sportive dans le monde entier ;
 promouvoir la recherche en chiropratique sportive ;
 représenter la profession de chiropratique dans le sport ;
 établir des conseils nationaux des sports chiropratiques dans le monde entier ;
 nouer des relations avec les organisations sportives internationales; dans le monde entier pour faire en sorte que les membres affichent les plus hauts niveaux de professionnalisme.
-La fédération préside maintenant 24 pays membres et compte près de 2 000 chiropraticiens inscrits[2].
+La fédération préside maintenant 24 pays membres et compte près de 2 000 chiropraticiens inscrits.
 </t>
         </is>
       </c>
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_internationale_de_chiropratique_du_sport</t>
+          <t>Fédération_internationale_de_chiropratique_du_sport</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,10 +531,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Fédération internationale de chiropratique du sport (FICS) a été créée en 1987 par le docteur Stephen Press lors d’une réunion des dirigeants nationaux de la chiropratique sportive tenue à Londres, en Angleterre[3]. 
-Depuis 1998, le FICS est régi par les lois du Code civil suisse[4]. À l’origine, ses bureaux étaient situés dans le New Jersey, aux États-Unis, dans les locaux de son premier président. En 1998, le siège du FICS a été transféré à Lausanne, en Suisse, où se trouve le Mouvement olympique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fédération internationale de chiropratique du sport (FICS) a été créée en 1987 par le docteur Stephen Press lors d’une réunion des dirigeants nationaux de la chiropratique sportive tenue à Londres, en Angleterre. 
+Depuis 1998, le FICS est régi par les lois du Code civil suisse. À l’origine, ses bureaux étaient situés dans le New Jersey, aux États-Unis, dans les locaux de son premier président. En 1998, le siège du FICS a été transféré à Lausanne, en Suisse, où se trouve le Mouvement olympique.
 En 2018, le service administratif de FICS a fait l'objet d'un appel d'offres mondial et la fonction administrative de FICS est désormais gérée à partir de Canberra en Australie, le siège de FICS se trouvant à la House of Sport de Lausanne. 
 </t>
         </is>
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_internationale_de_chiropratique_du_sport</t>
+          <t>Fédération_internationale_de_chiropratique_du_sport</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Liste des présidents</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1987–1990 : Dr Stephen Press (États-Unis)
 1990–1994 : Dr Noel Patterson (Australie)
